--- a/Table/UnitStatTable.xlsx
+++ b/Table/UnitStatTable.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,23 +59,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxAttSpeed-float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinAttSpeed-float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMoveSpeed-float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MinMoveSpeed-float</t>
+    <t>MaxAttSpeed-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinAttSpeed-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMoveSpeed-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinMoveSpeed-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAttSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinAttSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinMoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 스텟은 float형이지만 편의를 위해 int로 표기
+스탯이 100일 경우 실제 스탯은 1,(소수점 2번째 까지 지원함)
+ex1. 150 =&gt; 1.5
+ex2. 31 =&gt; 0.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,12 +225,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,13 +594,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>13</v>
@@ -502,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -526,16 +635,16 @@
         <v>5</v>
       </c>
       <c r="J2" s="1">
-        <v>1.1000000000000001</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1">
-        <v>0.3</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -546,14 +655,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="57.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:D11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Table/UnitStatTable.xlsx
+++ b/Table/UnitStatTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,14 @@
 스탯이 100일 경우 실제 스탯은 1,(소수점 2번째 까지 지원함)
 ex1. 150 =&gt; 1.5
 ex2. 31 =&gt; 0.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSearchSize-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinSearchSize-int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,9 +574,10 @@
     <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,8 +617,14 @@
       <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -645,6 +663,12 @@
       </c>
       <c r="M2" s="1">
         <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -777,7 +801,7 @@
       <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -789,7 +813,7 @@
       <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -801,7 +825,7 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Table/UnitStatTable.xlsx
+++ b/Table/UnitStatTable.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\ProjectApo\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="5415" yWindow="3510" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +51,6 @@
   </si>
   <si>
     <t>MinDef-int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,11 +180,23 @@
     <t>MinSearchSize-int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>인간-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트 좀비-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,9 +236,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,22 +612,22 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -629,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -668,6 +674,100 @@
         <v>8</v>
       </c>
       <c r="O2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>15</v>
+      </c>
+      <c r="O4" s="3">
         <v>10</v>
       </c>
     </row>
@@ -695,13 +795,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -713,119 +813,119 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Table/UnitStatTable.xlsx
+++ b/Table/UnitStatTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="3510" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="780" yWindow="480" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxSearchSize-int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinSearchSize-int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간-테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +182,66 @@
   </si>
   <si>
     <t>엘리트 좀비-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinDetectionRange-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxReactionSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinReactionSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 반응속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 반응속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxReactionSpeed-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinxReactionSpeed-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDetectionRange-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinDetectionRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDetectionRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 탐색 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 탐색 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,13 +299,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,20 +616,12 @@
     <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="18.125" customWidth="1"/>
+    <col min="4" max="13" width="18.625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="17" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -624,18 +662,24 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -671,18 +715,24 @@
         <v>3</v>
       </c>
       <c r="N2" s="2">
+        <v>200</v>
+      </c>
+      <c r="O2" s="2">
+        <v>150</v>
+      </c>
+      <c r="P2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2">
         <v>8</v>
       </c>
-      <c r="O2" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -717,19 +767,25 @@
       <c r="M3" s="1">
         <v>5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
+        <v>250</v>
+      </c>
+      <c r="O3" s="2">
+        <v>170</v>
+      </c>
+      <c r="P3" s="2">
         <v>15</v>
       </c>
-      <c r="O3" s="3">
+      <c r="Q3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -764,12 +820,34 @@
       <c r="M4" s="1">
         <v>5</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
+        <v>200</v>
+      </c>
+      <c r="O4" s="2">
+        <v>200</v>
+      </c>
+      <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="O4" s="3">
+      <c r="Q4" s="2">
         <v>10</v>
       </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -779,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,7 +955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -887,7 +965,7 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -901,7 +979,7 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -913,7 +991,7 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -925,11 +1003,57 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
